--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-12.xlsx
@@ -68,7 +68,7 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>2:4</t>
   </si>
   <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
@@ -287,6 +287,9 @@
     <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -392,7 +395,7 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1157,7 +1160,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -2633,17 +2636,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2665,11 +2668,11 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2685,13 +2688,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2717,11 +2720,11 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2737,17 +2740,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2763,13 +2766,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2789,13 +2792,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2807,7 +2810,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2815,17 +2818,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2841,17 +2844,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2867,17 +2870,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2893,17 +2896,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2911,7 +2914,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2919,17 +2922,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2951,7 +2954,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2971,13 +2974,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3003,11 +3006,11 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3023,17 +3026,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3049,13 +3052,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3075,17 +3078,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3101,13 +3104,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3127,17 +3130,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3145,7 +3148,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3153,17 +3156,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3171,7 +3174,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3179,17 +3182,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3205,17 +3208,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3231,13 +3234,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3257,7 +3260,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3283,13 +3286,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3301,7 +3304,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3309,13 +3312,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3335,17 +3338,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3353,7 +3356,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3361,17 +3364,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3379,7 +3382,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3387,17 +3390,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3413,13 +3416,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3431,7 +3434,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3439,13 +3442,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3465,13 +3468,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3491,13 +3494,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3517,13 +3520,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3543,13 +3546,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3561,7 +3564,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3569,51 +3572,77 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>140</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
+        <v>139</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>70</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="103" ht="25.5" customHeight="1">
-      <c r="K103" s="10">
-        <v>4645.3599999999997</v>
-      </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-    </row>
-    <row r="104" ht="17.25" customHeight="1">
-      <c t="s" r="A104" s="11">
-        <v>140</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c t="s" r="F104" s="12">
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="K104" s="10">
+        <v>4691.3599999999997</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="11">
         <v>141</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-      <c t="s" r="I104" s="14">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c t="s" r="F105" s="12">
         <v>142</v>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+      <c t="s" r="I105" s="14">
+        <v>143</v>
+      </c>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="308">
+  <mergeCells count="311">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3918,10 +3947,13 @@
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="I105:N105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
